--- a/test01/AreaAndPerimeter/Design_01test1.xlsx
+++ b/test01/AreaAndPerimeter/Design_01test1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\CANADA\COLLEGE\2_TERM\2_CSD2354_ProgrammingC#NET\Github_Repository\Assignments\test01\AreaAndPerimeter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5141B338-38A2-4E5A-8180-C06EA420529D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0687896A-604D-46C2-A512-767336ABCE40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-5520" yWindow="4320" windowWidth="11376" windowHeight="9420" xr2:uid="{3C4068DF-F92D-4EAA-A5F6-4C8557B6631E}"/>
   </bookViews>
@@ -747,7 +747,7 @@
   <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
